--- a/LR1/Компрессоры.xlsx
+++ b/LR1/Компрессоры.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Учеба\2 курс 2 семестр\АиСД\Итог\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Учеба\2 курс 2 семестр\АиСД\Итог\LR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73704B5C-05A9-4C99-A11D-8A154F2D9239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D940A0-E350-4035-91CB-6C2A7C11D075}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>enwik7.txt</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>grey.raw</t>
+  </si>
+  <si>
+    <t>Энтропия, бит</t>
   </si>
 </sst>
 </file>
@@ -107,7 +110,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +132,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +209,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -213,13 +221,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -237,9 +243,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,6 +252,10 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -530,776 +537,794 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:G34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.140625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="13" max="13" width="20.140625" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
+      <c r="B2" s="13">
         <f>10000000</f>
         <v>10000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M3" t="s">
+      <c r="C2" s="25">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="1">
+      <c r="B3" s="13">
         <f>2609729</f>
         <v>2609729</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M4" t="s">
+      <c r="C3" s="25">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="1">
+      <c r="B4" s="13">
         <v>5292000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M5" t="s">
+      <c r="C4" s="25">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="1">
+      <c r="B5" s="13">
         <f>1764000</f>
         <v>1764000</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M6" t="s">
+      <c r="C5" s="25">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="1">
+      <c r="B6" s="13">
         <f>1764000</f>
         <v>1764000</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C6" s="25">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <f>10000000</f>
         <v>10000000</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <f>2609729</f>
         <v>2609729</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>5292000</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>6408037</v>
       </c>
-      <c r="C10" s="13">
-        <f>$N$2/B10</f>
+      <c r="C10" s="11">
+        <f t="shared" ref="C10:C20" si="0">$B$2/B10</f>
         <v>1.5605403027479399</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>899900</v>
       </c>
-      <c r="G10" s="12">
-        <f>$N$3/F10</f>
+      <c r="G10" s="10">
+        <f t="shared" ref="G10:G20" si="1">$B$3/F10</f>
         <v>2.9000211134570506</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="16">
         <v>5128502</v>
       </c>
-      <c r="K10" s="20">
-        <f>$N$4/J10</f>
+      <c r="K10" s="17">
+        <f t="shared" ref="K10:K20" si="2">$B$4/J10</f>
         <v>1.0318802644514908</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="18">
-        <v>6326384</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" ref="C11:C20" si="0">$N$2/B11</f>
-        <v>1.5806817923161161</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="B11" s="15">
+        <v>6326397</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="0"/>
+        <v>1.5806785442013835</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7">
-        <v>890312</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" ref="G11:G20" si="1">$N$3/F11</f>
-        <v>2.9312521902434203</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="6">
+        <v>890310</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9312587750334154</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="21">
-        <v>5102774</v>
-      </c>
-      <c r="K11" s="22">
-        <f t="shared" ref="K11:K20" si="2">$N$4/J11</f>
-        <v>1.037082967029306</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="J11" s="18">
+        <v>5102779</v>
+      </c>
+      <c r="K11" s="17">
+        <f t="shared" si="2"/>
+        <v>1.0370819508350253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="15">
         <v>13216485</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>0.75663082884745836</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>2631053</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f t="shared" si="1"/>
         <v>0.99189526018670093</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="18">
         <v>8981540</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="19">
         <f t="shared" si="2"/>
         <v>0.58920853216708935</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="15">
         <f>7734203</f>
         <v>7734203</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>1.2929580462266119</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f>1900557</f>
         <v>1900557</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="11">
         <f t="shared" si="1"/>
         <v>1.3731390323994492</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <v>7477826</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="19">
         <f t="shared" si="2"/>
         <v>0.70769231592176651</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="15">
         <v>3203024</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>3.1220496630684003</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>505059</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>5.167176508091134</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="18">
         <v>2432677</v>
       </c>
-      <c r="K14" s="24">
+      <c r="K14" s="20">
         <f t="shared" si="2"/>
         <v>2.175381277497999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="15">
         <v>3104293</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>3.221345407794947</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>499103</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
         <v>5.2288385363341838</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <v>2416927</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="20">
         <f t="shared" si="2"/>
         <v>2.1895572352826544</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>3648980</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>2.7404918634796571</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>598725</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>4.3588108062967139</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="18">
         <v>2697437</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="21">
         <f t="shared" si="2"/>
         <v>1.9618623159688253</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="15">
         <v>3560384</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>2.8086858046772485</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>586936</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>4.4463604208976788</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <v>2667085</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <f t="shared" si="2"/>
         <v>1.9841887303929195</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="18">
-        <v>8671010</v>
-      </c>
-      <c r="C18" s="8">
+      <c r="B18" s="15">
+        <v>11298632</v>
+      </c>
+      <c r="C18" s="23">
         <f t="shared" si="0"/>
-        <v>1.1532681890575607</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>0.88506289965015239</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="7">
-        <v>1418618</v>
-      </c>
-      <c r="G18" s="8">
+      <c r="F18" s="6">
+        <v>1984356</v>
+      </c>
+      <c r="G18" s="11">
         <f t="shared" si="1"/>
-        <v>1.8396277221915978</v>
-      </c>
-      <c r="I18" s="3" t="s">
+        <v>1.3151516159398817</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="21">
-        <v>5873074</v>
-      </c>
-      <c r="K18" s="22">
+      <c r="J18" s="18">
+        <v>8187601</v>
+      </c>
+      <c r="K18" s="19">
         <f t="shared" si="2"/>
-        <v>0.90106135219818451</v>
+        <v>0.64634317182774292</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="18">
-        <v>6936188</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="B19" s="15">
+        <v>7492107</v>
+      </c>
+      <c r="C19" s="11">
         <f t="shared" si="0"/>
-        <v>1.441714094254654</v>
-      </c>
-      <c r="E19" s="3" t="s">
+        <v>1.3347380116167589</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="7">
-        <v>1037344</v>
-      </c>
-      <c r="G19" s="8">
+      <c r="F19" s="6">
+        <v>1317296</v>
+      </c>
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
-        <v>2.5157797220594134</v>
-      </c>
-      <c r="I19" s="3" t="s">
+        <v>1.9811257302838543</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="21">
-        <v>4515674</v>
-      </c>
-      <c r="K19" s="22">
+      <c r="J19" s="18">
+        <v>5684906</v>
+      </c>
+      <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>1.1719180791173145</v>
+        <v>0.93088610436126829</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="18">
-        <v>5962156</v>
-      </c>
-      <c r="C20" s="8">
+      <c r="B20" s="15">
+        <v>7463306</v>
+      </c>
+      <c r="C20" s="24">
         <f t="shared" si="0"/>
-        <v>1.6772456138349952</v>
-      </c>
-      <c r="E20" s="3" t="s">
+        <v>1.3398887838713835</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="7">
-        <v>903420</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="F20" s="6">
+        <v>1309250</v>
+      </c>
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>2.8887217462531272</v>
-      </c>
-      <c r="I20" s="3" t="s">
+        <v>1.9933007447011648</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="21">
-        <v>3790861</v>
-      </c>
-      <c r="K20" s="22">
+      <c r="J20" s="18">
+        <v>5650354</v>
+      </c>
+      <c r="K20" s="19">
         <f t="shared" si="2"/>
-        <v>1.3959889323296211</v>
+        <v>0.93657848694081824</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="13">
         <f>1764000</f>
         <v>1764000</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="13">
         <f>1764000</f>
         <v>1764000</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>282824</v>
       </c>
-      <c r="C24" s="12">
-        <f>$N$5/B24</f>
+      <c r="C24" s="10">
+        <f t="shared" ref="C24:C34" si="3">$B$5/B24</f>
         <v>6.2370944474302039</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="7">
         <v>1514613</v>
       </c>
-      <c r="G24" s="13">
-        <f>$N$6/F24</f>
+      <c r="G24" s="11">
+        <f t="shared" ref="G24:G34" si="4">$B$6/F24</f>
         <v>1.1646539413038182</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>192847</v>
       </c>
-      <c r="C25" s="8">
-        <f>$N$5/B25</f>
+      <c r="C25" s="10">
+        <f t="shared" si="3"/>
         <v>9.1471477388810811</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="7">
-        <v>1504361</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" ref="G25:G34" si="3">$N$6/F25</f>
-        <v>1.1725908874266218</v>
+      <c r="F25" s="6">
+        <v>1504363</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1725893285064841</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>44186</v>
       </c>
-      <c r="C26" s="12">
-        <f>$N$5/B26</f>
+      <c r="C26" s="10">
+        <f t="shared" si="3"/>
         <v>39.922147286470825</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <v>1365590</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="11">
+        <f t="shared" si="4"/>
+        <v>1.2917493537591811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6">
+        <v>33198</v>
+      </c>
+      <c r="C27" s="10">
         <f t="shared" si="3"/>
-        <v>1.2917493537591811</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+        <v>53.135731068136636</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="7">
-        <v>33198</v>
-      </c>
-      <c r="C27" s="12">
-        <f>$N$5/B27</f>
-        <v>53.135731068136636</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>1499212</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
+        <f t="shared" si="4"/>
+        <v>1.1766181167173155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <v>221008</v>
+      </c>
+      <c r="C28" s="10">
         <f t="shared" si="3"/>
-        <v>1.1766181167173155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+        <v>7.9816115253746469</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="7">
-        <v>221008</v>
-      </c>
-      <c r="C28" s="12">
-        <f>$N$5/B28</f>
-        <v>7.9816115253746469</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>434549</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="10">
+        <f t="shared" si="4"/>
+        <v>4.0593811054679678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="6">
+        <v>626</v>
+      </c>
+      <c r="C29" s="10">
         <f t="shared" si="3"/>
-        <v>4.0593811054679678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+        <v>2817.8913738019169</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7">
-        <v>626</v>
-      </c>
-      <c r="C29" s="12">
-        <f>$N$5/B29</f>
-        <v>2817.8913738019169</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>399609</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="10">
+        <f t="shared" si="4"/>
+        <v>4.4143149929055649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="6">
+        <v>7296</v>
+      </c>
+      <c r="C30" s="10">
         <f t="shared" si="3"/>
-        <v>4.4143149929055649</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+        <v>241.77631578947367</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="7">
-        <v>7296</v>
-      </c>
-      <c r="C30" s="12">
-        <f>$N$5/B30</f>
-        <v>241.77631578947367</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>497304</v>
       </c>
-      <c r="G30" s="12">
-        <f t="shared" si="3"/>
+      <c r="G30" s="10">
+        <f t="shared" si="4"/>
         <v>3.5471261039525119</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B31">
         <v>5211</v>
       </c>
-      <c r="C31" s="8">
-        <f>$N$5/B31</f>
+      <c r="C31" s="10">
+        <f t="shared" si="3"/>
         <v>338.51468048359243</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>490327</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G31" s="10">
+        <f t="shared" si="4"/>
+        <v>3.5975991532181584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1589</v>
+      </c>
+      <c r="C32" s="10">
         <f t="shared" si="3"/>
-        <v>3.5975991532181584</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+        <v>1110.1321585903083</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="7">
-        <v>16844</v>
-      </c>
-      <c r="C32" s="8">
-        <f>$N$5/B32</f>
-        <v>104.72571835668488</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="7">
-        <v>951094</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="F32" s="6">
+        <v>1303413</v>
+      </c>
+      <c r="G32" s="11">
+        <f t="shared" si="4"/>
+        <v>1.3533699602505116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="6">
+        <v>4374</v>
+      </c>
+      <c r="C33" s="10">
         <f t="shared" si="3"/>
-        <v>1.8547062645753207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+        <v>403.29218106995887</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="7">
-        <v>11449</v>
-      </c>
-      <c r="C33" s="8">
-        <f>$N$5/B33</f>
-        <v>154.07459166739454</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="7">
-        <v>805850</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="F33" s="6">
+        <v>907544</v>
+      </c>
+      <c r="G33" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9437074125331664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1975</v>
+      </c>
+      <c r="C34" s="10">
         <f t="shared" si="3"/>
-        <v>2.188992988769622</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+        <v>893.16455696202536</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="7">
-        <v>5002</v>
-      </c>
-      <c r="C34" s="8">
-        <f>$N$5/B34</f>
-        <v>352.65893642542983</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="7">
-        <v>714472</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="3"/>
-        <v>2.468956096250098</v>
+      <c r="F34" s="6">
+        <v>895024</v>
+      </c>
+      <c r="G34" s="11">
+        <f t="shared" si="4"/>
+        <v>1.9708968698046085</v>
       </c>
     </row>
   </sheetData>
